--- a/labdata/Furious George metadata.xlsx
+++ b/labdata/Furious George metadata.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mphum\GitHub\MaMa2023\labdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6417D-70E9-4A7E-B25D-77FA68098138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{43F6417D-70E9-4A7E-B25D-77FA68098138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE25B903-F209-4A59-80B0-2989D7D26F3F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,6 +41,15 @@
     <t>salinity</t>
   </si>
   <si>
+    <t>total_phosphate_vol</t>
+  </si>
+  <si>
+    <t>total_silicate_vol</t>
+  </si>
+  <si>
+    <t>dic_vol</t>
+  </si>
+  <si>
     <t>3.1.1</t>
   </si>
   <si>
@@ -56,22 +78,13 @@
   </si>
   <si>
     <t>NUTS</t>
-  </si>
-  <si>
-    <t>total_phosphate_vol</t>
-  </si>
-  <si>
-    <t>total_silicate_vol</t>
-  </si>
-  <si>
-    <t>dic_vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +96,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,14 +146,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,12 +459,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,171 +476,171 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>27.51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>29.11</v>
+      </c>
+      <c r="C3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="E3">
+        <v>2366.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>29.497599999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2379.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30.45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2374.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>31.31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2323.1999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31.4697</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2282.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31.57</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2291.6999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B9" s="3">
+        <v>30.9724</v>
+      </c>
+      <c r="C9">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D9">
+        <v>2.04</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2279.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B10" s="3">
+        <v>31.133199999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2246.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
       </c>
       <c r="B11">
         <v>27</v>
